--- a/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>159995</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>华夏国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>238.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.2888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159801</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发国证半导体芯片ETF</t>
+          <t>国联安中证全指半导体产品与设备ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.79</t>
+          <t>105.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159813</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华国证半导体芯片ETF</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>47.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>159801</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>广发国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159995</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏国证半导体芯片ETF</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.80</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>159813</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>鹏华国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.86</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.86</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>165523</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>信诚中证信息安全指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>99.29</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>89.38</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>165523</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚中证信息安全指数（LOF）</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>94.69</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>99.47</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.35</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.35</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2018,4 +2019,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.19</v>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.41</v>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>19.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603160-汇顶科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.01</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.19</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>4.41</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>19.95</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015565</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -963,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2063,7 +2326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,7 +2534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
